--- a/bollinger bands.xlsx
+++ b/bollinger bands.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ballard\Documents\Visual Studio 2015\Projects\ScanOpts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28005" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +19,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +62,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -801,12 +806,20 @@
         <v>94.532239557138197</v>
       </c>
       <c r="J21" s="1">
-        <f>SUM(G21-H21*2)</f>
+        <f t="shared" ref="J21" si="2">SUM(G21-H21*2)</f>
         <v>87.966760442861769</v>
       </c>
       <c r="K21" s="1">
-        <f>SUM(I21-J21)</f>
+        <f t="shared" ref="K21" si="3">SUM(I21-J21)</f>
         <v>6.5654791142764282</v>
+      </c>
+      <c r="L21">
+        <f>SUM(K21/2)</f>
+        <v>3.2827395571382141</v>
+      </c>
+      <c r="M21" s="1">
+        <f>SUM(G21-J21)</f>
+        <v>3.2827395571382141</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -829,16 +842,24 @@
         <v>1.6444156256859161</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I23" si="2">SUM(G22+H22*2)</f>
+        <f t="shared" ref="I22:I23" si="4">SUM(G22+H22*2)</f>
         <v>94.530331251371834</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J24" si="3">SUM(G22-H22*2)</f>
+        <f t="shared" ref="J22:J24" si="5">SUM(G22-H22*2)</f>
         <v>87.95266874862817</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K24" si="4">SUM(I22-J22)</f>
+        <f t="shared" ref="K22:K24" si="6">SUM(I22-J22)</f>
         <v>6.5776625027436637</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L24" si="7">SUM(K22/2)</f>
+        <v>3.2888312513718319</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M24" si="8">SUM(G22-J22)</f>
+        <v>3.2888312513718319</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -849,11 +870,11 @@
         <v>91.39</v>
       </c>
       <c r="F23" s="1">
-        <f>SUM(F22/(20-1))</f>
-        <v>2.8358894736842131</v>
+        <f>SUM(F22/(20))</f>
+        <v>2.6940950000000026</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G24" si="5">SUM(C4:C23)/20</f>
+        <f t="shared" ref="G23:G24" si="9">SUM(C4:C23)/20</f>
         <v>91.165999999999997</v>
       </c>
       <c r="H23" s="1">
@@ -861,16 +882,24 @@
         <v>1.6006167561287123</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94.367233512257428</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.964766487742565</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.4024670245148627</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>3.2012335122574314</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2012335122574314</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -882,10 +911,10 @@
       </c>
       <c r="F24">
         <f>SQRT(F23)</f>
-        <v>1.6840099387130152</v>
+        <v>1.6413698547250106</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>91.049499999999995</v>
       </c>
       <c r="H24" s="1">
@@ -897,13 +926,59 @@
         <v>94.146068907678298</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.952931092321691</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.1931378153566072</v>
       </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>3.0965689076783036</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0965689076783036</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>94.532239557138197</v>
+      </c>
+      <c r="J27">
+        <v>92</v>
+      </c>
+      <c r="K27" s="3">
+        <f>SUM(1-(I27/G21))</f>
+        <v>-3.5975425149049833E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>94.532239557138197</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28" s="3">
+        <f>SUM(1-(J28/G22))</f>
+        <v>1.3606746929850977E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bollinger bands.xlsx
+++ b/bollinger bands.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ballard\Documents\Visual Studio 2015\Projects\ScanOpts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28005" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M32"/>
+  <dimension ref="B2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +661,10 @@
         <f t="shared" si="1"/>
         <v>2.0164000000000049</v>
       </c>
+      <c r="L14" s="1">
+        <f>SUM(1-(J21/I21))*100</f>
+        <v>6.9452275171245192</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -676,6 +685,10 @@
         <f t="shared" si="1"/>
         <v>2.2801000000000156</v>
       </c>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15:L18" si="2">SUM(1-(J22/I22))*100</f>
+        <v>6.9582560599016237</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -696,9 +709,13 @@
         <f t="shared" si="1"/>
         <v>0.72249999999999037</v>
       </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7846293530298807</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -716,9 +733,13 @@
         <f t="shared" si="1"/>
         <v>0.26010000000000522</v>
       </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5782224231048181</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -736,8 +757,12 @@
         <f t="shared" si="1"/>
         <v>10.432900000000025</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680882</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -755,8 +780,12 @@
         <f t="shared" si="1"/>
         <v>9.9855999999999785</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f>SUM(1-(J26/I26))*100</f>
+        <v>19.999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -775,7 +804,7 @@
         <v>5.8080999999999836</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -806,11 +835,11 @@
         <v>94.532239557138197</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J21" si="2">SUM(G21-H21*2)</f>
+        <f t="shared" ref="J21" si="3">SUM(G21-H21*2)</f>
         <v>87.966760442861769</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21" si="3">SUM(I21-J21)</f>
+        <f>SUM(I21-J21)</f>
         <v>6.5654791142764282</v>
       </c>
       <c r="L21">
@@ -822,7 +851,7 @@
         <v>3.2827395571382141</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -842,27 +871,27 @@
         <v>1.6444156256859161</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I23" si="4">SUM(G22+H22*2)</f>
+        <f>SUM(G22+H22*2)</f>
         <v>94.530331251371834</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J24" si="5">SUM(G22-H22*2)</f>
+        <f t="shared" ref="J22:J24" si="4">SUM(G22-H22*2)</f>
         <v>87.95266874862817</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K24" si="6">SUM(I22-J22)</f>
+        <f t="shared" ref="K22:K24" si="5">SUM(I22-J22)</f>
         <v>6.5776625027436637</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L24" si="7">SUM(K22/2)</f>
+        <f t="shared" ref="L22:L24" si="6">SUM(K22/2)</f>
         <v>3.2888312513718319</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:M24" si="8">SUM(G22-J22)</f>
+        <f>SUM(G22-J22)</f>
         <v>3.2888312513718319</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -874,7 +903,7 @@
         <v>2.6940950000000026</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G24" si="9">SUM(C4:C23)/20</f>
+        <f t="shared" ref="G23:G24" si="7">SUM(C4:C23)/20</f>
         <v>91.165999999999997</v>
       </c>
       <c r="H23" s="1">
@@ -882,27 +911,27 @@
         <v>1.6006167561287123</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" ref="I22:I23" si="8">SUM(G23+H23*2)</f>
+        <v>94.367233512257428</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>94.367233512257428</v>
-      </c>
-      <c r="J23" s="1">
+        <v>87.964766487742565</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="5"/>
-        <v>87.964766487742565</v>
-      </c>
-      <c r="K23" s="1">
+        <v>6.4024670245148627</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>6.4024670245148627</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="7"/>
         <v>3.2012335122574314</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M22:M24" si="9">SUM(G23-J23)</f>
         <v>3.2012335122574314</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -914,7 +943,7 @@
         <v>1.6413698547250106</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>91.049499999999995</v>
       </c>
       <c r="H24" s="1">
@@ -926,23 +955,47 @@
         <v>94.146068907678298</v>
       </c>
       <c r="J24" s="1">
+        <f t="shared" si="4"/>
+        <v>87.952931092321691</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="5"/>
-        <v>87.952931092321691</v>
-      </c>
-      <c r="K24" s="1">
+        <v>6.1931378153566072</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>6.1931378153566072</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="7"/>
         <v>3.0965689076783036</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0965689076783036</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>94</v>
+      </c>
+      <c r="J25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="M26" s="1">
+        <f>SUM(G21)</f>
+        <v>91.249499999999983</v>
+      </c>
+      <c r="N26">
+        <f>SUM(M21/M26)*10</f>
+        <v>0.35975425149049745</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>94.532239557138197</v>
       </c>
@@ -953,8 +1006,16 @@
         <f>SUM(1-(I27/G21))</f>
         <v>-3.5975425149049833E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M29" si="10">SUM(G22)</f>
+        <v>91.241500000000002</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N29" si="11">SUM(M22/M27)*10</f>
+        <v>0.36045343964882559</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>94.532239557138197</v>
       </c>
@@ -965,19 +1026,34 @@
         <f>SUM(1-(J28/G22))</f>
         <v>1.3606746929850977E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <f t="shared" si="10"/>
+        <v>91.165999999999997</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>0.35114335522644752</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>91</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>0.34028229754706629</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
     </row>
   </sheetData>
